--- a/QuACK2021/Week11/wisc_raw-codebook.xlsx
+++ b/QuACK2021/Week11/wisc_raw-codebook.xlsx
@@ -591,9 +591,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>1 (control) or 2 (experimental)</t>
-  </si>
-  <si>
     <t>&lt;-- Make this column the first column</t>
   </si>
   <si>
@@ -691,6 +688,9 @@
   </si>
   <si>
     <t>End Date (Note: time zone is Mountaint Time!)</t>
+  </si>
+  <si>
+    <t>0 (control) or 1 (experimental)</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1063,7 @@
         <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -1434,7 +1434,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -1489,7 +1489,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
@@ -1544,7 +1544,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
@@ -1599,7 +1599,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
@@ -1654,7 +1654,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -1709,7 +1709,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
@@ -1764,7 +1764,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
@@ -1819,7 +1819,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
         <v>69</v>
@@ -1874,7 +1874,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
         <v>74</v>
@@ -1929,7 +1929,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
         <v>79</v>
@@ -1984,7 +1984,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" t="s">
         <v>84</v>
@@ -2039,7 +2039,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
@@ -2094,7 +2094,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
         <v>94</v>
@@ -2149,7 +2149,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
         <v>99</v>
@@ -2204,7 +2204,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C106" t="s">
         <v>104</v>
@@ -2259,7 +2259,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
         <v>109</v>
@@ -2314,7 +2314,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
         <v>114</v>
@@ -2369,7 +2369,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C121" t="s">
         <v>119</v>
@@ -2424,7 +2424,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
         <v>124</v>
@@ -2479,7 +2479,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
         <v>129</v>
@@ -2534,7 +2534,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
         <v>134</v>
@@ -2589,7 +2589,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
         <v>139</v>
@@ -2644,7 +2644,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C146" t="s">
         <v>144</v>
@@ -2699,7 +2699,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C151" t="s">
         <v>149</v>
@@ -2754,7 +2754,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
         <v>154</v>
@@ -2815,7 +2815,7 @@
         <v>171</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,18 +2829,18 @@
         <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,10 +2851,10 @@
         <v>187</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,7 +2868,7 @@
         <v>161</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
